--- a/biology/Botanique/Allium_altaicum/Allium_altaicum.xlsx
+++ b/biology/Botanique/Allium_altaicum/Allium_altaicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium altaicum est une espèce de plantes à fleurs du genre Allium et de la famille des Amaryllidacées. C'est une plante bulbeuse vivace originaire de Russie (Krai de l'Altaï, Bouriatie, Kraï de Transbaïkalie, Irkoutsk, Tuva, Oblast de l'Amour), de Mongolie, du Kazakhstan et du nord de la Chine (Mongolie intérieure, Heilongjiang et Xinjiang)[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium altaicum est une espèce de plantes à fleurs du genre Allium et de la famille des Amaryllidacées. C'est une plante bulbeuse vivace originaire de Russie (Krai de l'Altaï, Bouriatie, Kraï de Transbaïkalie, Irkoutsk, Tuva, Oblast de l'Amour), de Mongolie, du Kazakhstan et du nord de la Chine (Mongolie intérieure, Heilongjiang et Xinjiang),.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium altaicum forme des bulbes ovoïdes atteignant 4 cm de diamètre. La hampe florale est ronde en coupe transversale et atteint 1 m de haut. Les feuilles sont rondes, jusqu'à 50 cm de long. Les fleurs sont jaune pâle, de près de 20 mm de diamètre. L'ovaire a la forme d'un œuf ; les étamines sont plus longues que les tépales[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium altaicum forme des bulbes ovoïdes atteignant 4 cm de diamètre. La hampe florale est ronde en coupe transversale et atteint 1 m de haut. Les feuilles sont rondes, jusqu'à 50 cm de long. Les fleurs sont jaune pâle, de près de 20 mm de diamètre. L'ovaire a la forme d'un œuf ; les étamines sont plus longues que les tépales,.
 </t>
         </is>
       </c>
